--- a/TestCase/Excel/TestCase1.xlsx
+++ b/TestCase/Excel/TestCase1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>转译ID</t>
   </si>
@@ -40,10 +40,16 @@
     <t>[8c8b9d]使用后可获得[D2ECFE]5000[-]声望</t>
   </si>
   <si>
-    <t>[8c8b9d]用于装备精练的初级精练石，增加[D2ECFE]5[-]点精练经验</t>
-  </si>
-  <si>
-    <t>[8c8b9d]用于装备精练的中级精练石，增加[D2ECFE]10[-]点精练经验</t>
+    <t>[8c8b9d]用于装备精练的"初级"精练石，增加[D2ECFE]5[-]点精练经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8c8b9d]用于装备精练的“中级”精练石，增加[D2ECFE]10[-]点精练经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"测试1"|"测试2"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,6 +132,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -133,11 +150,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,6 +513,9 @@
       <c r="A6">
         <v>11037999</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">

--- a/TestCase/Excel/TestCase1.xlsx
+++ b/TestCase/Excel/TestCase1.xlsx
@@ -1,102 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="LuaTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>转译ID</t>
-  </si>
-  <si>
-    <t>中文版本描述文本</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>注释1</t>
+  </si>
+  <si>
+    <t>注释2</t>
+  </si>
+  <si>
+    <t>注释3</t>
+  </si>
+  <si>
+    <t>注释4</t>
+  </si>
+  <si>
+    <t>注释5</t>
+  </si>
+  <si>
+    <t>注释6</t>
+  </si>
+  <si>
+    <t>注释7</t>
+  </si>
+  <si>
+    <t>注释8</t>
+  </si>
+  <si>
+    <t>注释9</t>
+  </si>
+  <si>
+    <t>注释10</t>
+  </si>
+  <si>
+    <t>注释11</t>
+  </si>
+  <si>
+    <t>注释12</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>TestNest1</t>
+  </si>
+  <si>
+    <t>NestEle2</t>
+  </si>
+  <si>
+    <t>TestNest2</t>
+  </si>
+  <si>
+    <t>TestNest3</t>
+  </si>
+  <si>
+    <t>NestEle3</t>
+  </si>
+  <si>
+    <t>TestNest4</t>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>[8c8b9d]使用后可获得[D2ECFE]5000[-]声望</t>
-  </si>
-  <si>
-    <t>[8c8b9d]用于装备精练的"初级"精练石，增加[D2ECFE]5[-]点精练经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8c8b9d]用于装备精练的“中级”精练石，增加[D2ECFE]10[-]点精练经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t>"测试1"|"测试2"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试"字符串"</t>
+  </si>
+  <si>
+    <t>测试“字符串”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,10 +309,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -119,58 +503,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -458,89 +1119,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="62.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
         <v>11037920</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>11037999</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>11038000</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>11038001</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>11038002</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>